--- a/data/greene_Supplementary_Table_1.xlsx
+++ b/data/greene_Supplementary_Table_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CF0A4-2562-7948-980C-14129A4B266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1A8FA-17A6-4A43-A5B7-9FD0BE923664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="1700" windowWidth="27420" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,9 +734,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>Total ice mass (Gt)</t>
-  </si>
-  <si>
     <t>Total ice area (km2)</t>
   </si>
   <si>
@@ -753,6 +750,9 @@
   </si>
   <si>
     <t>every</t>
+  </si>
+  <si>
+    <t>Total ice mass (Gt), holding thickness constant</t>
   </si>
 </sst>
 </file>
@@ -1471,6 +1471,45 @@
     <xf numFmtId="165" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1482,45 +1521,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1888,7 +1888,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:L2"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1905,8 +1905,8 @@
     <col min="10" max="10" width="10.6640625" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2007,34 +2007,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -2051,350 +2051,350 @@
     <row r="4" spans="1:110" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="42"/>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="42"/>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="42"/>
-      <c r="DC4" s="42"/>
-      <c r="DD4" s="42"/>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="42"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41"/>
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
     </row>
     <row r="5" spans="1:110" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="O5" s="38">
+      <c r="L5" s="44"/>
+      <c r="M5" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="42">
         <v>1997.75</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38">
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42">
         <v>2000.2</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42">
         <v>2000.75</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38">
+      <c r="T5" s="42"/>
+      <c r="U5" s="42">
         <v>2001.2</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38">
+      <c r="V5" s="42"/>
+      <c r="W5" s="42">
         <v>2002.2</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42">
         <v>2003.2</v>
       </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38">
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42">
         <v>2004.2</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38">
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42">
         <v>2005.2</v>
       </c>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38">
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42">
         <v>2006.2</v>
       </c>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38">
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42">
         <v>2007.2</v>
       </c>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38">
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42">
         <v>2008.2</v>
       </c>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38">
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42">
         <v>2009.2</v>
       </c>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42">
         <v>2010.2</v>
       </c>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38">
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42">
         <v>2011.2</v>
       </c>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38">
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42">
         <v>2012.2</v>
       </c>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38">
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42">
         <v>2013.2</v>
       </c>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38">
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42">
         <v>2014.2</v>
       </c>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38">
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42">
         <v>2015.2</v>
       </c>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38">
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42">
         <v>2016.2</v>
       </c>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42">
         <v>2017.2</v>
       </c>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38">
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42">
         <v>2018.2</v>
       </c>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38">
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42">
         <v>2019.2</v>
       </c>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38">
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42">
         <v>2020.2</v>
       </c>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38">
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42">
         <v>2021.2</v>
       </c>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="41">
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="40">
         <v>1997.75</v>
       </c>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41">
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40">
         <v>2000.2</v>
       </c>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41">
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="40">
         <v>2000.75</v>
       </c>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41">
+      <c r="BP5" s="40"/>
+      <c r="BQ5" s="40">
         <v>2001.2</v>
       </c>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41">
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40">
         <v>2002.2</v>
       </c>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41">
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="40">
         <v>2003.2</v>
       </c>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="41">
+      <c r="BV5" s="40"/>
+      <c r="BW5" s="40">
         <v>2004.2</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41">
+      <c r="BX5" s="40"/>
+      <c r="BY5" s="40">
         <v>2005.2</v>
       </c>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41">
+      <c r="BZ5" s="40"/>
+      <c r="CA5" s="40">
         <v>2006.2</v>
       </c>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41">
+      <c r="CB5" s="40"/>
+      <c r="CC5" s="40">
         <v>2007.2</v>
       </c>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41">
+      <c r="CD5" s="40"/>
+      <c r="CE5" s="40">
         <v>2008.2</v>
       </c>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41">
+      <c r="CF5" s="40"/>
+      <c r="CG5" s="40">
         <v>2009.2</v>
       </c>
-      <c r="CH5" s="41"/>
-      <c r="CI5" s="41">
+      <c r="CH5" s="40"/>
+      <c r="CI5" s="40">
         <v>2010.2</v>
       </c>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41">
+      <c r="CJ5" s="40"/>
+      <c r="CK5" s="40">
         <v>2011.2</v>
       </c>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41">
+      <c r="CL5" s="40"/>
+      <c r="CM5" s="40">
         <v>2012.2</v>
       </c>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41">
+      <c r="CN5" s="40"/>
+      <c r="CO5" s="40">
         <v>2013.2</v>
       </c>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41">
+      <c r="CP5" s="40"/>
+      <c r="CQ5" s="40">
         <v>2014.2</v>
       </c>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41">
+      <c r="CR5" s="40"/>
+      <c r="CS5" s="40">
         <v>2015.2</v>
       </c>
-      <c r="CT5" s="41"/>
-      <c r="CU5" s="41">
+      <c r="CT5" s="40"/>
+      <c r="CU5" s="40">
         <v>2016.2</v>
       </c>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41">
+      <c r="CV5" s="40"/>
+      <c r="CW5" s="40">
         <v>2017.2</v>
       </c>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41">
+      <c r="CX5" s="40"/>
+      <c r="CY5" s="40">
         <v>2018.2</v>
       </c>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41">
+      <c r="CZ5" s="40"/>
+      <c r="DA5" s="40">
         <v>2019.2</v>
       </c>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41">
+      <c r="DB5" s="40"/>
+      <c r="DC5" s="40">
         <v>2020.2</v>
       </c>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41">
+      <c r="DD5" s="40"/>
+      <c r="DE5" s="40">
         <v>2021.2</v>
       </c>
-      <c r="DF5" s="41"/>
+      <c r="DF5" s="40"/>
     </row>
     <row r="6" spans="1:110" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2433,8 +2433,8 @@
       <c r="L6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="12" t="s">
         <v>186</v>
       </c>
@@ -2761,10 +2761,10 @@
       <c r="L7" s="11">
         <v>0.63331644472169302</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="34">
         <v>40.703769612683999</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="34">
         <v>55.950515171659497</v>
       </c>
       <c r="O7" s="14">
@@ -3093,10 +3093,10 @@
       <c r="L8" s="11">
         <v>8.3746677413064394E-2</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="34">
         <v>1.50276965862486</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="34">
         <v>1.85631543952352</v>
       </c>
       <c r="O8" s="16">
@@ -3425,10 +3425,10 @@
       <c r="L9" s="11">
         <v>4.6110324681337703E-2</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="34">
         <v>1.62528509379061</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="34">
         <v>2.1500767060339099</v>
       </c>
       <c r="O9" s="16">
@@ -3757,10 +3757,10 @@
       <c r="L10" s="11">
         <v>6.0955052316898302E-2</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="34">
         <v>1.35330934736859</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="34">
         <v>1.597259266354</v>
       </c>
       <c r="O10" s="16">
@@ -4089,10 +4089,10 @@
       <c r="L11" s="11">
         <v>5.8157254159183498E-2</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="34">
         <v>1.2386551964347301</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="34">
         <v>1.6146588751390101</v>
       </c>
       <c r="O11" s="16">
@@ -4421,10 +4421,10 @@
       <c r="L12" s="11">
         <v>0.10269851747546201</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="34">
         <v>2.9570892100738302</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="34">
         <v>4.0471177298102097</v>
       </c>
       <c r="O12" s="16">
@@ -4753,10 +4753,10 @@
       <c r="L13" s="11">
         <v>5.7738734781821802E-2</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="34">
         <v>0.79996152624533401</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="34">
         <v>0.88933933999813097</v>
       </c>
       <c r="O13" s="16">
@@ -5085,10 +5085,10 @@
       <c r="L14" s="11">
         <v>6.4786847129130104E-2</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="34">
         <v>0.623656959732934</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="34">
         <v>0.66370408780667001</v>
       </c>
       <c r="O14" s="16">
@@ -5417,10 +5417,10 @@
       <c r="L15" s="11">
         <v>0.14573289069898901</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="34">
         <v>1.2717747480872299</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="34">
         <v>1.3089779314244301</v>
       </c>
       <c r="O15" s="16">
@@ -5749,10 +5749,10 @@
       <c r="L16" s="11">
         <v>5.5446032384064203</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="34">
         <v>97.8135934038052</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="34">
         <v>329.63054618963798</v>
       </c>
       <c r="O16" s="16">
@@ -6081,10 +6081,10 @@
       <c r="L17" s="11">
         <v>0.103212530812246</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="34">
         <v>2.5226501853877599</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="34">
         <v>5.3262986888116703</v>
       </c>
       <c r="O17" s="16">
@@ -6413,10 +6413,10 @@
       <c r="L18" s="11">
         <v>8.3234327820551502E-3</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="34">
         <v>1.7303250841669601E-2</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="34">
         <v>1.9964897482700101E-2</v>
       </c>
       <c r="O18" s="16">
@@ -6745,10 +6745,10 @@
       <c r="L19" s="11">
         <v>9.1302355368020796E-2</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="34">
         <v>4.5964904518792098</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="34">
         <v>5.2899037827009403</v>
       </c>
       <c r="O19" s="16">
@@ -7077,10 +7077,10 @@
       <c r="L20" s="11">
         <v>0.140137365349425</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="34">
         <v>2.6071678174471802</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="34">
         <v>2.9115457661267401</v>
       </c>
       <c r="O20" s="16">
@@ -7409,10 +7409,10 @@
       <c r="L21" s="11">
         <v>6.9437246134461603E-2</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="34">
         <v>3.7784784412430699</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="34">
         <v>4.0319438402428096</v>
       </c>
       <c r="O21" s="16">
@@ -7741,10 +7741,10 @@
       <c r="L22" s="11">
         <v>0.20918858983941699</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="34">
         <v>8.5949075516175792</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="34">
         <v>11.5969771606458</v>
       </c>
       <c r="O22" s="16">
@@ -8073,10 +8073,10 @@
       <c r="L23" s="11">
         <v>5.7031399962566197E-2</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="34">
         <v>0.200106924379681</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="34">
         <v>0.20236118043745099</v>
       </c>
       <c r="O23" s="16">
@@ -8405,10 +8405,10 @@
       <c r="L24" s="11">
         <v>1.2728224570401401</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="34">
         <v>31.593653864821601</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="34">
         <v>39.697569529734103</v>
       </c>
       <c r="O24" s="16">
@@ -8737,10 +8737,10 @@
       <c r="L25" s="11">
         <v>2.3378526592693998</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="34">
         <v>32.4283625485606</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="34">
         <v>47.654531800535302</v>
       </c>
       <c r="O25" s="16">
@@ -9069,10 +9069,10 @@
       <c r="L26" s="11">
         <v>0.167686948965204</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="34">
         <v>1.6077196100628699</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="34">
         <v>2.21239440880285</v>
       </c>
       <c r="O26" s="16">
@@ -9401,10 +9401,10 @@
       <c r="L27" s="11">
         <v>8.1195648088793093E-2</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="34">
         <v>0.54755274252210895</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="34">
         <v>0.63253259106065196</v>
       </c>
       <c r="O27" s="16">
@@ -9733,10 +9733,10 @@
       <c r="L28" s="11">
         <v>6.1846643435267099</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="34">
         <v>35.055807214647203</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="34">
         <v>38.750131021457001</v>
       </c>
       <c r="O28" s="16">
@@ -10065,10 +10065,10 @@
       <c r="L29" s="11">
         <v>5.1864909643972001E-2</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="34">
         <v>0.81928587836340205</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="34">
         <v>0.85118520212865001</v>
       </c>
       <c r="O29" s="16">
@@ -10397,10 +10397,10 @@
       <c r="L30" s="11">
         <v>9.5837064390849706E-3</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="34">
         <v>0.186165938511823</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="34">
         <v>0.19015350132982201</v>
       </c>
       <c r="O30" s="16">
@@ -10729,10 +10729,10 @@
       <c r="L31" s="11">
         <v>1.21778612471514E-2</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="34">
         <v>0.34719825975844099</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="34">
         <v>0.39978332195058303</v>
       </c>
       <c r="O31" s="16">
@@ -11061,10 +11061,10 @@
       <c r="L32" s="11">
         <v>6.8440168900033599E-2</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="34">
         <v>0.143684068606687</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="34">
         <v>0.15013076366763201</v>
       </c>
       <c r="O32" s="16">
@@ -11393,10 +11393,10 @@
       <c r="L33" s="11">
         <v>4.3302245330107098E-2</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="34">
         <v>0.26540832137541798</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="34">
         <v>0.34466290835567998</v>
       </c>
       <c r="O33" s="16">
@@ -11725,10 +11725,10 @@
       <c r="L34" s="11">
         <v>5.4538208437009197E-3</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="34">
         <v>9.5569945503047801E-2</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="34">
         <v>0.10715938587964501</v>
       </c>
       <c r="O34" s="16">
@@ -12057,10 +12057,10 @@
       <c r="L35" s="11">
         <v>0.12903536470142901</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="34">
         <v>1.7439283231551399</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="34">
         <v>2.2602958631436501</v>
       </c>
       <c r="O35" s="16">
@@ -12389,10 +12389,10 @@
       <c r="L36" s="11">
         <v>0.216133356111324</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="34">
         <v>2.0622643768477702</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="34">
         <v>2.1876991429924502</v>
       </c>
       <c r="O36" s="16">
@@ -12721,10 +12721,10 @@
       <c r="L37" s="11">
         <v>2.1819333671825798</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="34">
         <v>28.4684478175122</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="34">
         <v>29.713353849275801</v>
       </c>
       <c r="O37" s="16">
@@ -13053,10 +13053,10 @@
       <c r="L38" s="11">
         <v>0.18076422776277901</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="34">
         <v>8.5043482985577192</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="34">
         <v>12.0733963230036</v>
       </c>
       <c r="O38" s="16">
@@ -13385,10 +13385,10 @@
       <c r="L39" s="11">
         <v>1.9686954379123101</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="34">
         <v>19.7808494278813</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="34">
         <v>31.830858006737099</v>
       </c>
       <c r="O39" s="16">
@@ -13717,10 +13717,10 @@
       <c r="L40" s="11">
         <v>2.95492349287633E-3</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="34">
         <v>2.2378032291748799</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="34">
         <v>3.9173387150433099</v>
       </c>
       <c r="O40" s="16">
@@ -14049,10 +14049,10 @@
       <c r="L41" s="11">
         <v>3.7386143527025101E-2</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="34">
         <v>0.58856022391826701</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="34">
         <v>0.60538960861878899</v>
       </c>
       <c r="O41" s="16">
@@ -14381,10 +14381,10 @@
       <c r="L42" s="11">
         <v>0.112885674392513</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="34">
         <v>0.89544242437453003</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="34">
         <v>0.90660687493698999</v>
       </c>
       <c r="O42" s="16">
@@ -14713,10 +14713,10 @@
       <c r="L43" s="11">
         <v>6.43510057831716E-2</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="34">
         <v>1.50236690356778</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="34">
         <v>1.62217183921882</v>
       </c>
       <c r="O43" s="16">
@@ -15045,10 +15045,10 @@
       <c r="L44" s="11">
         <v>0.14025339153823899</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="34">
         <v>15.583583476083</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="34">
         <v>33.002413760821703</v>
       </c>
       <c r="O44" s="16">
@@ -15377,10 +15377,10 @@
       <c r="L45" s="11">
         <v>0.53219678957653005</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="34">
         <v>21.833242067381398</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="34">
         <v>43.755924297878003</v>
       </c>
       <c r="O45" s="16">
@@ -15709,10 +15709,10 @@
       <c r="L46" s="11">
         <v>3.1203477358653298E-2</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="34">
         <v>0.41667792653837799</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="34">
         <v>0.42176569634331301</v>
       </c>
       <c r="O46" s="16">
@@ -16041,10 +16041,10 @@
       <c r="L47" s="11">
         <v>0.49118587800404401</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="34">
         <v>5.0474955466698699</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="34">
         <v>16.983031198773801</v>
       </c>
       <c r="O47" s="16">
@@ -16373,10 +16373,10 @@
       <c r="L48" s="11">
         <v>0.23232163935792999</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="34">
         <v>6.1494269086084099</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="34">
         <v>9.7545934553018103</v>
       </c>
       <c r="O48" s="16">
@@ -16705,10 +16705,10 @@
       <c r="L49" s="11">
         <v>0.47849832012237697</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="34">
         <v>9.9720525160533295</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="34">
         <v>16.7565750943503</v>
       </c>
       <c r="O49" s="16">
@@ -17037,10 +17037,10 @@
       <c r="L50" s="11">
         <v>0.11558734748961801</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="34">
         <v>0.43148643527999497</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="34">
         <v>0.439112128202445</v>
       </c>
       <c r="O50" s="16">
@@ -17369,10 +17369,10 @@
       <c r="L51" s="11">
         <v>1.7443739961825001E-2</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="34">
         <v>-2.8174987949631601E-2</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="34">
         <v>-2.85854476289653E-2</v>
       </c>
       <c r="O51" s="16">
@@ -17701,10 +17701,10 @@
       <c r="L52" s="11">
         <v>1.09810980653356E-2</v>
       </c>
-      <c r="M52" s="46">
+      <c r="M52" s="34">
         <v>1.0804062190149399E-2</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="34">
         <v>1.10241848062079E-2</v>
       </c>
       <c r="O52" s="16">
@@ -18033,10 +18033,10 @@
       <c r="L53" s="11">
         <v>9.4719885608348403E-2</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="34">
         <v>4.2793848255545797</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="34">
         <v>4.7088617127146897</v>
       </c>
       <c r="O53" s="16">
@@ -18365,10 +18365,10 @@
       <c r="L54" s="11">
         <v>6.1911068661363204</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="34">
         <v>136.77627082128899</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="34">
         <v>408.454188474452</v>
       </c>
       <c r="O54" s="16">
@@ -18697,10 +18697,10 @@
       <c r="L55" s="11">
         <v>2.6154632364741701</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="34">
         <v>37.195229153548901</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="34">
         <v>48.889701311224698</v>
       </c>
       <c r="O55" s="16">
@@ -19029,10 +19029,10 @@
       <c r="L56" s="11">
         <v>7.4455468836572794E-2</v>
       </c>
-      <c r="M56" s="46">
+      <c r="M56" s="34">
         <v>0.84294767879280597</v>
       </c>
-      <c r="N56" s="46">
+      <c r="N56" s="34">
         <v>1.0063965831433399</v>
       </c>
       <c r="O56" s="16">
@@ -19361,10 +19361,10 @@
       <c r="L57" s="11">
         <v>4.2930997842560603E-2</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57" s="34">
         <v>0.42057496651320397</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N57" s="34">
         <v>0.433321046342729</v>
       </c>
       <c r="O57" s="16">
@@ -19693,10 +19693,10 @@
       <c r="L58" s="11">
         <v>3.9987825553039598E-2</v>
       </c>
-      <c r="M58" s="46">
+      <c r="M58" s="34">
         <v>4.3654484105685798</v>
       </c>
-      <c r="N58" s="46">
+      <c r="N58" s="34">
         <v>3.94162495963189</v>
       </c>
       <c r="O58" s="16">
@@ -20025,10 +20025,10 @@
       <c r="L59" s="11">
         <v>0.43096683918392698</v>
       </c>
-      <c r="M59" s="46">
+      <c r="M59" s="34">
         <v>2.7880652944926498</v>
       </c>
-      <c r="N59" s="46">
+      <c r="N59" s="34">
         <v>2.8422975649834901</v>
       </c>
       <c r="O59" s="16">
@@ -20357,10 +20357,10 @@
       <c r="L60" s="11">
         <v>0.282853093078964</v>
       </c>
-      <c r="M60" s="46">
+      <c r="M60" s="34">
         <v>1.59567708510072</v>
       </c>
-      <c r="N60" s="46">
+      <c r="N60" s="34">
         <v>1.64923678160325</v>
       </c>
       <c r="O60" s="16">
@@ -20689,10 +20689,10 @@
       <c r="L61" s="11">
         <v>0.22763276289430501</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="34">
         <v>3.9161054091488698</v>
       </c>
-      <c r="N61" s="46">
+      <c r="N61" s="34">
         <v>4.5397489255866903</v>
       </c>
       <c r="O61" s="16">
@@ -21021,10 +21021,10 @@
       <c r="L62" s="11">
         <v>0.60664870340685695</v>
       </c>
-      <c r="M62" s="46">
+      <c r="M62" s="34">
         <v>20.341332626581998</v>
       </c>
-      <c r="N62" s="46">
+      <c r="N62" s="34">
         <v>22.2386145077188</v>
       </c>
       <c r="O62" s="16">
@@ -21353,10 +21353,10 @@
       <c r="L63" s="11">
         <v>2.4505711899717699E-2</v>
       </c>
-      <c r="M63" s="46">
+      <c r="M63" s="34">
         <v>0.18810601451363301</v>
       </c>
-      <c r="N63" s="46">
+      <c r="N63" s="34">
         <v>0.20178951444128099</v>
       </c>
       <c r="O63" s="16">
@@ -21685,10 +21685,10 @@
       <c r="L64" s="11">
         <v>3.7393109556336901E-2</v>
       </c>
-      <c r="M64" s="46">
+      <c r="M64" s="34">
         <v>0.37109148138853898</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N64" s="34">
         <v>0.28689712583673599</v>
       </c>
       <c r="O64" s="16">
@@ -22017,10 +22017,10 @@
       <c r="L65" s="11">
         <v>3.1816457208845801E-2</v>
       </c>
-      <c r="M65" s="46">
+      <c r="M65" s="34">
         <v>0.82997001419521399</v>
       </c>
-      <c r="N65" s="46">
+      <c r="N65" s="34">
         <v>1.24621554341635</v>
       </c>
       <c r="O65" s="16">
@@ -22349,10 +22349,10 @@
       <c r="L66" s="11">
         <v>1.5492327053218999</v>
       </c>
-      <c r="M66" s="46">
+      <c r="M66" s="34">
         <v>66.850852224686903</v>
       </c>
-      <c r="N66" s="46">
+      <c r="N66" s="34">
         <v>95.213352626120695</v>
       </c>
       <c r="O66" s="16">
@@ -22681,10 +22681,10 @@
       <c r="L67" s="11">
         <v>5.02134769921713</v>
       </c>
-      <c r="M67" s="46">
+      <c r="M67" s="34">
         <v>99.631751131395504</v>
       </c>
-      <c r="N67" s="46">
+      <c r="N67" s="34">
         <v>154.74656055955401</v>
       </c>
       <c r="O67" s="16">
@@ -23013,10 +23013,10 @@
       <c r="L68" s="11">
         <v>9.8335693604804597E-2</v>
       </c>
-      <c r="M68" s="46">
+      <c r="M68" s="34">
         <v>2.2422492038604398</v>
       </c>
-      <c r="N68" s="46">
+      <c r="N68" s="34">
         <v>3.5455720410515199</v>
       </c>
       <c r="O68" s="16">
@@ -23345,10 +23345,10 @@
       <c r="L69" s="11">
         <v>5.0952472618101097E-2</v>
       </c>
-      <c r="M69" s="46">
+      <c r="M69" s="34">
         <v>1.5709048733261399</v>
       </c>
-      <c r="N69" s="46">
+      <c r="N69" s="34">
         <v>2.0613994853122799</v>
       </c>
       <c r="O69" s="16">
@@ -23677,10 +23677,10 @@
       <c r="L70" s="11">
         <v>0.17247110831333301</v>
       </c>
-      <c r="M70" s="46">
+      <c r="M70" s="34">
         <v>0.64607605950278602</v>
       </c>
-      <c r="N70" s="46">
+      <c r="N70" s="34">
         <v>0.65598775766944994</v>
       </c>
       <c r="O70" s="16">
@@ -24009,10 +24009,10 @@
       <c r="L71" s="11">
         <v>3.7412626965902203E-2</v>
       </c>
-      <c r="M71" s="46">
+      <c r="M71" s="34">
         <v>1.8724742109375601</v>
       </c>
-      <c r="N71" s="46">
+      <c r="N71" s="34">
         <v>2.15118832165198</v>
       </c>
       <c r="O71" s="16">
@@ -24341,10 +24341,10 @@
       <c r="L72" s="11">
         <v>1.3317679394797201E-2</v>
       </c>
-      <c r="M72" s="46">
+      <c r="M72" s="34">
         <v>0.31742862514589398</v>
       </c>
-      <c r="N72" s="46">
+      <c r="N72" s="34">
         <v>0.31762866412246199</v>
       </c>
       <c r="O72" s="16">
@@ -24673,10 +24673,10 @@
       <c r="L73" s="11">
         <v>0.15286816810888099</v>
       </c>
-      <c r="M73" s="46">
+      <c r="M73" s="34">
         <v>2.0823738463094301</v>
       </c>
-      <c r="N73" s="46">
+      <c r="N73" s="34">
         <v>2.8018571653662798</v>
       </c>
       <c r="O73" s="16">
@@ -25005,10 +25005,10 @@
       <c r="L74" s="11">
         <v>1.2971889845330899E-2</v>
       </c>
-      <c r="M74" s="46">
+      <c r="M74" s="34">
         <v>0.53802398604914303</v>
       </c>
-      <c r="N74" s="46">
+      <c r="N74" s="34">
         <v>0.55862773948982503</v>
       </c>
       <c r="O74" s="16">
@@ -25337,10 +25337,10 @@
       <c r="L75" s="11">
         <v>3.9867611311887999E-2</v>
       </c>
-      <c r="M75" s="46">
+      <c r="M75" s="34">
         <v>0.48283466709510803</v>
       </c>
-      <c r="N75" s="46">
+      <c r="N75" s="34">
         <v>0.60143149824534703</v>
       </c>
       <c r="O75" s="16">
@@ -25669,10 +25669,10 @@
       <c r="L76" s="11">
         <v>0.235086551041637</v>
       </c>
-      <c r="M76" s="46">
+      <c r="M76" s="34">
         <v>0.88605358251830801</v>
       </c>
-      <c r="N76" s="46">
+      <c r="N76" s="34">
         <v>0.87573849272438697</v>
       </c>
       <c r="O76" s="16">
@@ -26001,10 +26001,10 @@
       <c r="L77" s="11">
         <v>0.43043682499605701</v>
       </c>
-      <c r="M77" s="46">
+      <c r="M77" s="34">
         <v>18.036930926952</v>
       </c>
-      <c r="N77" s="46">
+      <c r="N77" s="34">
         <v>18.666085991797001</v>
       </c>
       <c r="O77" s="16">
@@ -26333,10 +26333,10 @@
       <c r="L78" s="11">
         <v>2.03453013584731</v>
       </c>
-      <c r="M78" s="46">
+      <c r="M78" s="34">
         <v>21.883537265312398</v>
       </c>
-      <c r="N78" s="46">
+      <c r="N78" s="34">
         <v>24.654304836134799</v>
       </c>
       <c r="O78" s="16">
@@ -26665,10 +26665,10 @@
       <c r="L79" s="11">
         <v>8.3412904892643802E-2</v>
       </c>
-      <c r="M79" s="46">
+      <c r="M79" s="34">
         <v>0.67308600379490002</v>
       </c>
-      <c r="N79" s="46">
+      <c r="N79" s="34">
         <v>0.94930762612336195</v>
       </c>
       <c r="O79" s="16">
@@ -26997,10 +26997,10 @@
       <c r="L80" s="11">
         <v>1.77489542298584E-2</v>
       </c>
-      <c r="M80" s="46">
+      <c r="M80" s="34">
         <v>0.209045887686965</v>
       </c>
-      <c r="N80" s="46">
+      <c r="N80" s="34">
         <v>1.3979472811875899</v>
       </c>
       <c r="O80" s="16">
@@ -27329,10 +27329,10 @@
       <c r="L81" s="11">
         <v>4.9327802880730097E-2</v>
       </c>
-      <c r="M81" s="46">
+      <c r="M81" s="34">
         <v>1.4345402966242899</v>
       </c>
-      <c r="N81" s="46">
+      <c r="N81" s="34">
         <v>1.8033585757508299</v>
       </c>
       <c r="O81" s="16">
@@ -27661,10 +27661,10 @@
       <c r="L82" s="11">
         <v>0.26528612288828202</v>
       </c>
-      <c r="M82" s="46">
+      <c r="M82" s="34">
         <v>1.57717684972725</v>
       </c>
-      <c r="N82" s="46">
+      <c r="N82" s="34">
         <v>1.7757773192198201</v>
       </c>
       <c r="O82" s="16">
@@ -27993,10 +27993,10 @@
       <c r="L83" s="11">
         <v>0.10300704741535301</v>
       </c>
-      <c r="M83" s="46">
+      <c r="M83" s="34">
         <v>9.70877659888796</v>
       </c>
-      <c r="N83" s="46">
+      <c r="N83" s="34">
         <v>18.399406422091602</v>
       </c>
       <c r="O83" s="16">
@@ -28325,10 +28325,10 @@
       <c r="L84" s="11">
         <v>3.00128334562773E-2</v>
       </c>
-      <c r="M84" s="46">
+      <c r="M84" s="34">
         <v>0.50819572582816797</v>
       </c>
-      <c r="N84" s="46">
+      <c r="N84" s="34">
         <v>0.534459259795382</v>
       </c>
       <c r="O84" s="16">
@@ -28657,10 +28657,10 @@
       <c r="L85" s="11">
         <v>2.1114961331041099E-2</v>
       </c>
-      <c r="M85" s="46">
+      <c r="M85" s="34">
         <v>9.4233145856471801E-2</v>
       </c>
-      <c r="N85" s="46">
+      <c r="N85" s="34">
         <v>0.103196961130746</v>
       </c>
       <c r="O85" s="16">
@@ -28989,10 +28989,10 @@
       <c r="L86" s="11">
         <v>9.4925751178461207E-2</v>
       </c>
-      <c r="M86" s="46">
+      <c r="M86" s="34">
         <v>0.92853360978521604</v>
       </c>
-      <c r="N86" s="46">
+      <c r="N86" s="34">
         <v>1.05908110027646</v>
       </c>
       <c r="O86" s="16">
@@ -29321,10 +29321,10 @@
       <c r="L87" s="11">
         <v>1.19673772879542</v>
       </c>
-      <c r="M87" s="46">
+      <c r="M87" s="34">
         <v>20.593384166864301</v>
       </c>
-      <c r="N87" s="46">
+      <c r="N87" s="34">
         <v>36.012266421688501</v>
       </c>
       <c r="O87" s="16">
@@ -29653,10 +29653,10 @@
       <c r="L88" s="11">
         <v>6.00478404456894E-2</v>
       </c>
-      <c r="M88" s="46">
+      <c r="M88" s="34">
         <v>9.7130144949378702E-2</v>
       </c>
-      <c r="N88" s="46">
+      <c r="N88" s="34">
         <v>0.100425849878542</v>
       </c>
       <c r="O88" s="16">
@@ -29985,10 +29985,10 @@
       <c r="L89" s="11">
         <v>1.08069399479951</v>
       </c>
-      <c r="M89" s="46">
+      <c r="M89" s="34">
         <v>10.1455818685239</v>
       </c>
-      <c r="N89" s="46">
+      <c r="N89" s="34">
         <v>17.381063165173199</v>
       </c>
       <c r="O89" s="16">
@@ -30317,10 +30317,10 @@
       <c r="L90" s="11">
         <v>1.0297656899080401</v>
       </c>
-      <c r="M90" s="46">
+      <c r="M90" s="34">
         <v>0.98415887021189297</v>
       </c>
-      <c r="N90" s="46">
+      <c r="N90" s="34">
         <v>1.21236122424549</v>
       </c>
       <c r="O90" s="16">
@@ -30649,10 +30649,10 @@
       <c r="L91" s="11">
         <v>0.83588089016096101</v>
       </c>
-      <c r="M91" s="46">
+      <c r="M91" s="34">
         <v>3.9756249525532401</v>
       </c>
-      <c r="N91" s="46">
+      <c r="N91" s="34">
         <v>4.8702970863376498</v>
       </c>
       <c r="O91" s="16">
@@ -30981,10 +30981,10 @@
       <c r="L92" s="11">
         <v>5.1680820941581098</v>
       </c>
-      <c r="M92" s="46">
+      <c r="M92" s="34">
         <v>32.0659249335623</v>
       </c>
-      <c r="N92" s="46">
+      <c r="N92" s="34">
         <v>51.194586086332599</v>
       </c>
       <c r="O92" s="16">
@@ -31313,10 +31313,10 @@
       <c r="L93" s="11">
         <v>3.1845048877579498</v>
       </c>
-      <c r="M93" s="46">
+      <c r="M93" s="34">
         <v>31.7073194693095</v>
       </c>
-      <c r="N93" s="46">
+      <c r="N93" s="34">
         <v>44.511534258520498</v>
       </c>
       <c r="O93" s="16">
@@ -31645,10 +31645,10 @@
       <c r="L94" s="11">
         <v>7.1401590546264507E-2</v>
       </c>
-      <c r="M94" s="46">
+      <c r="M94" s="34">
         <v>0.144030162113854</v>
       </c>
-      <c r="N94" s="46">
+      <c r="N94" s="34">
         <v>0.142722088947838</v>
       </c>
       <c r="O94" s="16">
@@ -31977,10 +31977,10 @@
       <c r="L95" s="11">
         <v>0.216282138707936</v>
       </c>
-      <c r="M95" s="46">
+      <c r="M95" s="34">
         <v>6.4864769743254396</v>
       </c>
-      <c r="N95" s="46">
+      <c r="N95" s="34">
         <v>10.593197361114999</v>
       </c>
       <c r="O95" s="16">
@@ -32309,10 +32309,10 @@
       <c r="L96" s="11">
         <v>0.274387361954821</v>
       </c>
-      <c r="M96" s="46">
+      <c r="M96" s="34">
         <v>1.7901647414530399</v>
       </c>
-      <c r="N96" s="46">
+      <c r="N96" s="34">
         <v>2.1897419246498302</v>
       </c>
       <c r="O96" s="16">
@@ -32641,10 +32641,10 @@
       <c r="L97" s="11">
         <v>0.120558811684411</v>
       </c>
-      <c r="M97" s="46">
+      <c r="M97" s="34">
         <v>1.87348966575142</v>
       </c>
-      <c r="N97" s="46">
+      <c r="N97" s="34">
         <v>2.4838589766884902</v>
       </c>
       <c r="O97" s="16">
@@ -32973,10 +32973,10 @@
       <c r="L98" s="11">
         <v>0.262233706458183</v>
       </c>
-      <c r="M98" s="46">
+      <c r="M98" s="34">
         <v>2.96692011930037</v>
       </c>
-      <c r="N98" s="46">
+      <c r="N98" s="34">
         <v>3.3464585191406702</v>
       </c>
       <c r="O98" s="16">
@@ -33305,10 +33305,10 @@
       <c r="L99" s="11">
         <v>0.63263594250481403</v>
       </c>
-      <c r="M99" s="46">
+      <c r="M99" s="34">
         <v>7.4694064371642099</v>
       </c>
-      <c r="N99" s="46">
+      <c r="N99" s="34">
         <v>8.7484003482139894</v>
       </c>
       <c r="O99" s="16">
@@ -33637,10 +33637,10 @@
       <c r="L100" s="11">
         <v>0.157487619972423</v>
       </c>
-      <c r="M100" s="46">
+      <c r="M100" s="34">
         <v>5.1232426087044001</v>
       </c>
-      <c r="N100" s="46">
+      <c r="N100" s="34">
         <v>7.5242517939762097</v>
       </c>
       <c r="O100" s="16">
@@ -33969,10 +33969,10 @@
       <c r="L101" s="11">
         <v>0.15494744353857201</v>
       </c>
-      <c r="M101" s="46">
+      <c r="M101" s="34">
         <v>1.0853044219227701</v>
       </c>
-      <c r="N101" s="46">
+      <c r="N101" s="34">
         <v>1.09767422896647</v>
       </c>
       <c r="O101" s="16">
@@ -34301,10 +34301,10 @@
       <c r="L102" s="11">
         <v>8.33781954673736E-3</v>
       </c>
-      <c r="M102" s="46">
+      <c r="M102" s="34">
         <v>0.32925439383344601</v>
       </c>
-      <c r="N102" s="46">
+      <c r="N102" s="34">
         <v>0.34812957978158898</v>
       </c>
       <c r="O102" s="16">
@@ -34633,10 +34633,10 @@
       <c r="L103" s="11">
         <v>6.4934752775829699E-3</v>
       </c>
-      <c r="M103" s="46">
+      <c r="M103" s="34">
         <v>3.1195291563416199E-2</v>
       </c>
-      <c r="N103" s="46">
+      <c r="N103" s="34">
         <v>3.4189925488504802E-2</v>
       </c>
       <c r="O103" s="16">
@@ -34965,10 +34965,10 @@
       <c r="L104" s="11">
         <v>1.2059352525755299E-3</v>
       </c>
-      <c r="M104" s="46">
+      <c r="M104" s="34">
         <v>2.8537129464794E-2</v>
       </c>
-      <c r="N104" s="46">
+      <c r="N104" s="34">
         <v>2.9613161911785601E-2</v>
       </c>
       <c r="O104" s="16">
@@ -35297,10 +35297,10 @@
       <c r="L105" s="11">
         <v>0.22895845596431699</v>
       </c>
-      <c r="M105" s="46">
+      <c r="M105" s="34">
         <v>7.0177910485955604</v>
       </c>
-      <c r="N105" s="46">
+      <c r="N105" s="34">
         <v>7.54837378264234</v>
       </c>
       <c r="O105" s="16">
@@ -35629,10 +35629,10 @@
       <c r="L106" s="11">
         <v>0.10828126704425201</v>
       </c>
-      <c r="M106" s="46">
+      <c r="M106" s="34">
         <v>0.86951716965952097</v>
       </c>
-      <c r="N106" s="46">
+      <c r="N106" s="34">
         <v>0.87163896954613396</v>
       </c>
       <c r="O106" s="16">
@@ -35961,10 +35961,10 @@
       <c r="L107" s="11">
         <v>0.289485669641595</v>
       </c>
-      <c r="M107" s="46">
+      <c r="M107" s="34">
         <v>1.2418027702269201</v>
       </c>
-      <c r="N107" s="46">
+      <c r="N107" s="34">
         <v>1.5169164714443899</v>
       </c>
       <c r="O107" s="16">
@@ -36293,10 +36293,10 @@
       <c r="L108" s="11">
         <v>0.107416044635462</v>
       </c>
-      <c r="M108" s="46">
+      <c r="M108" s="34">
         <v>5.2100113792375797</v>
       </c>
-      <c r="N108" s="46">
+      <c r="N108" s="34">
         <v>5.3454124280920796</v>
       </c>
       <c r="O108" s="16">
@@ -36625,10 +36625,10 @@
       <c r="L109" s="11">
         <v>2.8476448950329299E-2</v>
       </c>
-      <c r="M109" s="46">
+      <c r="M109" s="34">
         <v>7.9949972546750195E-2</v>
       </c>
-      <c r="N109" s="46">
+      <c r="N109" s="34">
         <v>8.1554947492815999E-2</v>
       </c>
       <c r="O109" s="16">
@@ -36957,10 +36957,10 @@
       <c r="L110" s="11">
         <v>3.4480506273696102E-2</v>
       </c>
-      <c r="M110" s="46">
+      <c r="M110" s="34">
         <v>2.3966593873608399</v>
       </c>
-      <c r="N110" s="46">
+      <c r="N110" s="34">
         <v>3.3774278855554898</v>
       </c>
       <c r="O110" s="16">
@@ -37289,10 +37289,10 @@
       <c r="L111" s="11">
         <v>1.3641080678505799</v>
       </c>
-      <c r="M111" s="46">
+      <c r="M111" s="34">
         <v>14.3446498507492</v>
       </c>
-      <c r="N111" s="46">
+      <c r="N111" s="34">
         <v>22.5662395057475</v>
       </c>
       <c r="O111" s="16">
@@ -37621,10 +37621,10 @@
       <c r="L112" s="11">
         <v>7.49172992560624E-2</v>
       </c>
-      <c r="M112" s="46">
+      <c r="M112" s="34">
         <v>0.971628131163217</v>
       </c>
-      <c r="N112" s="46">
+      <c r="N112" s="34">
         <v>0.98208660900695799</v>
       </c>
       <c r="O112" s="16">
@@ -37953,10 +37953,10 @@
       <c r="L113" s="11">
         <v>2.38280417953432</v>
       </c>
-      <c r="M113" s="46">
+      <c r="M113" s="34">
         <v>52.148069407203998</v>
       </c>
-      <c r="N113" s="46">
+      <c r="N113" s="34">
         <v>173.627994879282</v>
       </c>
       <c r="O113" s="16">
@@ -38285,10 +38285,10 @@
       <c r="L114" s="11">
         <v>6.1297523944424601E-2</v>
       </c>
-      <c r="M114" s="46">
+      <c r="M114" s="34">
         <v>0.94338198923286698</v>
       </c>
-      <c r="N114" s="46">
+      <c r="N114" s="34">
         <v>1.0956811835697</v>
       </c>
       <c r="O114" s="16">
@@ -38617,10 +38617,10 @@
       <c r="L115" s="11">
         <v>3.5727071553626102E-2</v>
       </c>
-      <c r="M115" s="46">
+      <c r="M115" s="34">
         <v>6.8350512635807297</v>
       </c>
-      <c r="N115" s="46">
+      <c r="N115" s="34">
         <v>10.760897544416901</v>
       </c>
       <c r="O115" s="16">
@@ -38949,10 +38949,10 @@
       <c r="L116" s="11">
         <v>7.6671905475809099E-2</v>
       </c>
-      <c r="M116" s="46">
+      <c r="M116" s="34">
         <v>2.2385258246948898</v>
       </c>
-      <c r="N116" s="46">
+      <c r="N116" s="34">
         <v>3.3139017667472501</v>
       </c>
       <c r="O116" s="16">
@@ -39281,10 +39281,10 @@
       <c r="L117" s="11">
         <v>0.20687262308070301</v>
       </c>
-      <c r="M117" s="46">
+      <c r="M117" s="34">
         <v>4.0477759981831598</v>
       </c>
-      <c r="N117" s="46">
+      <c r="N117" s="34">
         <v>7.8725877402426399</v>
       </c>
       <c r="O117" s="16">
@@ -39613,10 +39613,10 @@
       <c r="L118" s="11">
         <v>0.93654595653882899</v>
       </c>
-      <c r="M118" s="46">
+      <c r="M118" s="34">
         <v>10.2186144781846</v>
       </c>
-      <c r="N118" s="46">
+      <c r="N118" s="34">
         <v>12.8163171358865</v>
       </c>
       <c r="O118" s="16">
@@ -39945,10 +39945,10 @@
       <c r="L119" s="11">
         <v>2.0870128457271102</v>
       </c>
-      <c r="M119" s="46">
+      <c r="M119" s="34">
         <v>29.898986771862202</v>
       </c>
-      <c r="N119" s="46">
+      <c r="N119" s="34">
         <v>34.573848932961901</v>
       </c>
       <c r="O119" s="16">
@@ -40277,10 +40277,10 @@
       <c r="L120" s="11">
         <v>0.232030159337656</v>
       </c>
-      <c r="M120" s="46">
+      <c r="M120" s="34">
         <v>9.6428601510841094</v>
       </c>
-      <c r="N120" s="46">
+      <c r="N120" s="34">
         <v>13.0064969548433</v>
       </c>
       <c r="O120" s="16">
@@ -40609,10 +40609,10 @@
       <c r="L121" s="11">
         <v>0.106442950552555</v>
       </c>
-      <c r="M121" s="46">
+      <c r="M121" s="34">
         <v>0.62364999319035197</v>
       </c>
-      <c r="N121" s="46">
+      <c r="N121" s="34">
         <v>0.65480946462533296</v>
       </c>
       <c r="O121" s="16">
@@ -40941,10 +40941,10 @@
       <c r="L122" s="11">
         <v>8.8413974937109605E-2</v>
       </c>
-      <c r="M122" s="46">
+      <c r="M122" s="34">
         <v>0.92188356538519201</v>
       </c>
-      <c r="N122" s="46">
+      <c r="N122" s="34">
         <v>1.0887002709803699</v>
       </c>
       <c r="O122" s="16">
@@ -41273,10 +41273,10 @@
       <c r="L123" s="11">
         <v>2.7569229465048799E-2</v>
       </c>
-      <c r="M123" s="46">
+      <c r="M123" s="34">
         <v>0.13663316119636401</v>
       </c>
-      <c r="N123" s="46">
+      <c r="N123" s="34">
         <v>0.14063766271679101</v>
       </c>
       <c r="O123" s="16">
@@ -41605,10 +41605,10 @@
       <c r="L124" s="11">
         <v>1.6205072487682302E-2</v>
       </c>
-      <c r="M124" s="46">
+      <c r="M124" s="34">
         <v>1.1185214405959E-2</v>
       </c>
-      <c r="N124" s="46">
+      <c r="N124" s="34">
         <v>1.08052090417227E-2</v>
       </c>
       <c r="O124" s="16">
@@ -41937,10 +41937,10 @@
       <c r="L125" s="11">
         <v>3.4994264794680201E-2</v>
       </c>
-      <c r="M125" s="46">
+      <c r="M125" s="34">
         <v>9.2636969750963805E-2</v>
       </c>
-      <c r="N125" s="46">
+      <c r="N125" s="34">
         <v>9.6053867738815704E-2</v>
       </c>
       <c r="O125" s="16">
@@ -42269,10 +42269,10 @@
       <c r="L126" s="11">
         <v>0.19380916203223</v>
       </c>
-      <c r="M126" s="46">
+      <c r="M126" s="34">
         <v>0.91445228081392604</v>
       </c>
-      <c r="N126" s="46">
+      <c r="N126" s="34">
         <v>1.35492332364166</v>
       </c>
       <c r="O126" s="16">
@@ -42601,10 +42601,10 @@
       <c r="L127" s="11">
         <v>3.8458492303426302</v>
       </c>
-      <c r="M127" s="46">
+      <c r="M127" s="34">
         <v>105.41429769328499</v>
       </c>
-      <c r="N127" s="46">
+      <c r="N127" s="34">
         <v>150.136573554173</v>
       </c>
       <c r="O127" s="16">
@@ -42933,10 +42933,10 @@
       <c r="L128" s="11">
         <v>0.170190356719925</v>
       </c>
-      <c r="M128" s="46">
+      <c r="M128" s="34">
         <v>1.0496059852684501</v>
       </c>
-      <c r="N128" s="46">
+      <c r="N128" s="34">
         <v>1.11170491411244</v>
       </c>
       <c r="O128" s="16">
@@ -43265,10 +43265,10 @@
       <c r="L129" s="11">
         <v>6.2828857432643298E-2</v>
       </c>
-      <c r="M129" s="46">
+      <c r="M129" s="34">
         <v>4.92554270428138</v>
       </c>
-      <c r="N129" s="46">
+      <c r="N129" s="34">
         <v>5.2311978955216096</v>
       </c>
       <c r="O129" s="16">
@@ -43597,10 +43597,10 @@
       <c r="L130" s="11">
         <v>1.5152639919495201</v>
       </c>
-      <c r="M130" s="46">
+      <c r="M130" s="34">
         <v>11.811777910963301</v>
       </c>
-      <c r="N130" s="46">
+      <c r="N130" s="34">
         <v>14.0360493072466</v>
       </c>
       <c r="O130" s="16">
@@ -43929,10 +43929,10 @@
       <c r="L131" s="11">
         <v>0.72165196601944603</v>
       </c>
-      <c r="M131" s="46">
+      <c r="M131" s="34">
         <v>21.951010295583298</v>
       </c>
-      <c r="N131" s="46">
+      <c r="N131" s="34">
         <v>30.2768862900516</v>
       </c>
       <c r="O131" s="16">
@@ -44261,10 +44261,10 @@
       <c r="L132" s="11">
         <v>0.13860679434338699</v>
       </c>
-      <c r="M132" s="46">
+      <c r="M132" s="34">
         <v>4.7526246113438404</v>
       </c>
-      <c r="N132" s="46">
+      <c r="N132" s="34">
         <v>6.8596723121318099</v>
       </c>
       <c r="O132" s="16">
@@ -44593,10 +44593,10 @@
       <c r="L133" s="11">
         <v>9.1257968966961898E-3</v>
       </c>
-      <c r="M133" s="46">
+      <c r="M133" s="34">
         <v>7.3011811575133395E-2</v>
       </c>
-      <c r="N133" s="46">
+      <c r="N133" s="34">
         <v>7.8954563162536004E-2</v>
       </c>
       <c r="O133" s="16">
@@ -44925,10 +44925,10 @@
       <c r="L134" s="11">
         <v>0.37754274365852097</v>
       </c>
-      <c r="M134" s="46">
+      <c r="M134" s="34">
         <v>8.1352727354268293</v>
       </c>
-      <c r="N134" s="46">
+      <c r="N134" s="34">
         <v>14.229118499538499</v>
       </c>
       <c r="O134" s="16">
@@ -45257,10 +45257,10 @@
       <c r="L135" s="11">
         <v>6.9870658769031202E-2</v>
       </c>
-      <c r="M135" s="46">
+      <c r="M135" s="34">
         <v>8.0198166634823806</v>
       </c>
-      <c r="N135" s="46">
+      <c r="N135" s="34">
         <v>10.848642372134201</v>
       </c>
       <c r="O135" s="16">
@@ -45589,10 +45589,10 @@
       <c r="L136" s="11">
         <v>9.8891574946017802E-2</v>
       </c>
-      <c r="M136" s="46">
+      <c r="M136" s="34">
         <v>0.82165572879698801</v>
       </c>
-      <c r="N136" s="46">
+      <c r="N136" s="34">
         <v>0.85942994436668596</v>
       </c>
       <c r="O136" s="16">
@@ -45921,10 +45921,10 @@
       <c r="L137" s="11">
         <v>2.0102046672576601</v>
       </c>
-      <c r="M137" s="46">
+      <c r="M137" s="34">
         <v>37.571102499453403</v>
       </c>
-      <c r="N137" s="46">
+      <c r="N137" s="34">
         <v>66.788794249232893</v>
       </c>
       <c r="O137" s="16">
@@ -46253,10 +46253,10 @@
       <c r="L138" s="11">
         <v>16.3722528805908</v>
       </c>
-      <c r="M138" s="46">
+      <c r="M138" s="34">
         <v>243.61338288166101</v>
       </c>
-      <c r="N138" s="46">
+      <c r="N138" s="34">
         <v>1130.07512202113</v>
       </c>
       <c r="O138" s="16">
@@ -46585,10 +46585,10 @@
       <c r="L139" s="11">
         <v>1.4595279057534201E-2</v>
       </c>
-      <c r="M139" s="46">
+      <c r="M139" s="34">
         <v>0.73753560509462601</v>
       </c>
-      <c r="N139" s="46">
+      <c r="N139" s="34">
         <v>0.74521362274538006</v>
       </c>
       <c r="O139" s="16">
@@ -46917,10 +46917,10 @@
       <c r="L140" s="11">
         <v>6.2279664924540299</v>
       </c>
-      <c r="M140" s="46">
+      <c r="M140" s="34">
         <v>98.275525314458505</v>
       </c>
-      <c r="N140" s="46">
+      <c r="N140" s="34">
         <v>185.13075706821101</v>
       </c>
       <c r="O140" s="16">
@@ -47249,10 +47249,10 @@
       <c r="L141" s="11">
         <v>11.474283753553401</v>
       </c>
-      <c r="M141" s="46">
+      <c r="M141" s="34">
         <v>78.301011601739901</v>
       </c>
-      <c r="N141" s="46">
+      <c r="N141" s="34">
         <v>209.87378661180301</v>
       </c>
       <c r="O141" s="16">
@@ -47581,10 +47581,10 @@
       <c r="L142" s="11">
         <v>2.3952360760632702E-2</v>
       </c>
-      <c r="M142" s="46">
+      <c r="M142" s="34">
         <v>0.65942819009058096</v>
       </c>
-      <c r="N142" s="46">
+      <c r="N142" s="34">
         <v>0.75185816238126302</v>
       </c>
       <c r="O142" s="16">
@@ -47913,10 +47913,10 @@
       <c r="L143" s="11">
         <v>8.0149328601595196E-2</v>
       </c>
-      <c r="M143" s="46">
+      <c r="M143" s="34">
         <v>0.62552824391067197</v>
       </c>
-      <c r="N143" s="46">
+      <c r="N143" s="34">
         <v>0.62462996213773403</v>
       </c>
       <c r="O143" s="16">
@@ -48245,10 +48245,10 @@
       <c r="L144" s="11">
         <v>3.3073998627631801E-2</v>
       </c>
-      <c r="M144" s="46">
+      <c r="M144" s="34">
         <v>0.42072581436134499</v>
       </c>
-      <c r="N144" s="46">
+      <c r="N144" s="34">
         <v>0.42732750369431799</v>
       </c>
       <c r="O144" s="16">
@@ -48577,10 +48577,10 @@
       <c r="L145" s="11">
         <v>5.0927489303995897E-2</v>
       </c>
-      <c r="M145" s="46">
+      <c r="M145" s="34">
         <v>0.77277724960586502</v>
       </c>
-      <c r="N145" s="46">
+      <c r="N145" s="34">
         <v>0.77997062126872196</v>
       </c>
       <c r="O145" s="16">
@@ -48909,10 +48909,10 @@
       <c r="L146" s="11">
         <v>4.4531288481088396</v>
       </c>
-      <c r="M146" s="46">
+      <c r="M146" s="34">
         <v>31.093084142916702</v>
       </c>
-      <c r="N146" s="46">
+      <c r="N146" s="34">
         <v>46.836546280431499</v>
       </c>
       <c r="O146" s="16">
@@ -49241,10 +49241,10 @@
       <c r="L147" s="11">
         <v>0.948227904627989</v>
       </c>
-      <c r="M147" s="46">
+      <c r="M147" s="34">
         <v>12.144955855977001</v>
       </c>
-      <c r="N147" s="46">
+      <c r="N147" s="34">
         <v>17.393168702972901</v>
       </c>
       <c r="O147" s="16">
@@ -49573,10 +49573,10 @@
       <c r="L148" s="11">
         <v>9.5722871036745899E-2</v>
       </c>
-      <c r="M148" s="46">
+      <c r="M148" s="34">
         <v>0.78312844960058103</v>
       </c>
-      <c r="N148" s="46">
+      <c r="N148" s="34">
         <v>0.88981264803820204</v>
       </c>
       <c r="O148" s="16">
@@ -49905,10 +49905,10 @@
       <c r="L149" s="11">
         <v>0.26266557526245099</v>
       </c>
-      <c r="M149" s="46">
+      <c r="M149" s="34">
         <v>4.9326160541175001</v>
       </c>
-      <c r="N149" s="46">
+      <c r="N149" s="34">
         <v>9.9654367880515693</v>
       </c>
       <c r="O149" s="16">
@@ -50237,10 +50237,10 @@
       <c r="L150" s="11">
         <v>4.3481383169916302E-2</v>
       </c>
-      <c r="M150" s="46">
+      <c r="M150" s="34">
         <v>0.5285524798058</v>
       </c>
-      <c r="N150" s="46">
+      <c r="N150" s="34">
         <v>0.58379295678971299</v>
       </c>
       <c r="O150" s="16">
@@ -50569,10 +50569,10 @@
       <c r="L151" s="11">
         <v>5.53335653191903E-2</v>
       </c>
-      <c r="M151" s="46">
+      <c r="M151" s="34">
         <v>1.7272464360731401</v>
       </c>
-      <c r="N151" s="46">
+      <c r="N151" s="34">
         <v>1.68785562715533</v>
       </c>
       <c r="O151" s="16">
@@ -50901,10 +50901,10 @@
       <c r="L152" s="11">
         <v>0.73947325741898295</v>
       </c>
-      <c r="M152" s="46">
+      <c r="M152" s="34">
         <v>17.844751526090999</v>
       </c>
-      <c r="N152" s="46">
+      <c r="N152" s="34">
         <v>26.184441463566699</v>
       </c>
       <c r="O152" s="16">
@@ -51233,10 +51233,10 @@
       <c r="L153" s="11">
         <v>0.27039447265581501</v>
       </c>
-      <c r="M153" s="46">
+      <c r="M153" s="34">
         <v>20.3330350774281</v>
       </c>
-      <c r="N153" s="46">
+      <c r="N153" s="34">
         <v>36.481865666439603</v>
       </c>
       <c r="O153" s="16">
@@ -51565,10 +51565,10 @@
       <c r="L154" s="11">
         <v>1.1750785082840101E-2</v>
       </c>
-      <c r="M154" s="46">
+      <c r="M154" s="34">
         <v>2.3957577580803701E-2</v>
       </c>
-      <c r="N154" s="46">
+      <c r="N154" s="34">
         <v>2.3880358985398201E-2</v>
       </c>
       <c r="O154" s="16">
@@ -51897,10 +51897,10 @@
       <c r="L155" s="11">
         <v>0.25380639574645703</v>
       </c>
-      <c r="M155" s="46">
+      <c r="M155" s="34">
         <v>1.3413972659231299</v>
       </c>
-      <c r="N155" s="46">
+      <c r="N155" s="34">
         <v>1.3930523696760999</v>
       </c>
       <c r="O155" s="16">
@@ -52229,10 +52229,10 @@
       <c r="L156" s="11">
         <v>0.229968570849794</v>
       </c>
-      <c r="M156" s="46">
+      <c r="M156" s="34">
         <v>3.7804377376450899</v>
       </c>
-      <c r="N156" s="46">
+      <c r="N156" s="34">
         <v>7.0217147193991902</v>
       </c>
       <c r="O156" s="16">
@@ -52561,10 +52561,10 @@
       <c r="L157" s="11">
         <v>7.4819553423329504E-3</v>
       </c>
-      <c r="M157" s="46">
+      <c r="M157" s="34">
         <v>0.25089767929393197</v>
       </c>
-      <c r="N157" s="46">
+      <c r="N157" s="34">
         <v>0.25599450390943701</v>
       </c>
       <c r="O157" s="16">
@@ -52893,10 +52893,10 @@
       <c r="L158" s="11">
         <v>3.9220284121330599E-2</v>
       </c>
-      <c r="M158" s="46">
+      <c r="M158" s="34">
         <v>0.58269903171554704</v>
       </c>
-      <c r="N158" s="46">
+      <c r="N158" s="34">
         <v>0.70123063172295197</v>
       </c>
       <c r="O158" s="16">
@@ -53225,10 +53225,10 @@
       <c r="L159" s="11">
         <v>7.1438999533409397</v>
       </c>
-      <c r="M159" s="46">
+      <c r="M159" s="34">
         <v>89.0766529337279</v>
       </c>
-      <c r="N159" s="46">
+      <c r="N159" s="34">
         <v>101.318466927343</v>
       </c>
       <c r="O159" s="16">
@@ -53557,10 +53557,10 @@
       <c r="L160" s="11">
         <v>2.3964780900981E-2</v>
       </c>
-      <c r="M160" s="46">
+      <c r="M160" s="34">
         <v>0.199902926285185</v>
       </c>
-      <c r="N160" s="46">
+      <c r="N160" s="34">
         <v>0.204550630987759</v>
       </c>
       <c r="O160" s="16">
@@ -53889,10 +53889,10 @@
       <c r="L161" s="11">
         <v>2.2599644392644</v>
       </c>
-      <c r="M161" s="46">
+      <c r="M161" s="34">
         <v>90.359687365228794</v>
       </c>
-      <c r="N161" s="46">
+      <c r="N161" s="34">
         <v>233.67147412844301</v>
       </c>
       <c r="O161" s="16">
@@ -54221,10 +54221,10 @@
       <c r="L162" s="11">
         <v>8.7917857713795497E-2</v>
       </c>
-      <c r="M162" s="46">
+      <c r="M162" s="34">
         <v>-0.20804443309325699</v>
       </c>
-      <c r="N162" s="46">
+      <c r="N162" s="34">
         <v>-0.26216654553403701</v>
       </c>
       <c r="O162" s="16">
@@ -54553,10 +54553,10 @@
       <c r="L163" s="11">
         <v>5.46402323975681E-2</v>
       </c>
-      <c r="M163" s="46">
+      <c r="M163" s="34">
         <v>0.48911767191961802</v>
       </c>
-      <c r="N163" s="46">
+      <c r="N163" s="34">
         <v>0.52269141311678202</v>
       </c>
       <c r="O163" s="16">
@@ -54885,10 +54885,10 @@
       <c r="L164" s="11">
         <v>0.47923232181653003</v>
       </c>
-      <c r="M164" s="46">
+      <c r="M164" s="34">
         <v>3.6231874767735399</v>
       </c>
-      <c r="N164" s="46">
+      <c r="N164" s="34">
         <v>5.88929987369246</v>
       </c>
       <c r="O164" s="16">
@@ -55217,10 +55217,10 @@
       <c r="L165" s="11">
         <v>5.1590241377088002E-2</v>
       </c>
-      <c r="M165" s="46">
+      <c r="M165" s="34">
         <v>2.7581655663813098</v>
       </c>
-      <c r="N165" s="46">
+      <c r="N165" s="34">
         <v>3.1485514368838201</v>
       </c>
       <c r="O165" s="16">
@@ -55549,10 +55549,10 @@
       <c r="L166" s="11">
         <v>0.79840330410670601</v>
       </c>
-      <c r="M166" s="46">
+      <c r="M166" s="34">
         <v>9.8477907176145294</v>
       </c>
-      <c r="N166" s="46">
+      <c r="N166" s="34">
         <v>12.5691329076692</v>
       </c>
       <c r="O166" s="16">
@@ -55881,10 +55881,10 @@
       <c r="L167" s="11">
         <v>0.31041561874930002</v>
       </c>
-      <c r="M167" s="46">
+      <c r="M167" s="34">
         <v>1.4893752380004199</v>
       </c>
-      <c r="N167" s="46">
+      <c r="N167" s="34">
         <v>1.76164505201585</v>
       </c>
       <c r="O167" s="16">
@@ -56213,10 +56213,10 @@
       <c r="L168" s="11">
         <v>0.29140780058349602</v>
       </c>
-      <c r="M168" s="46">
+      <c r="M168" s="34">
         <v>5.0485297766834902</v>
       </c>
-      <c r="N168" s="46">
+      <c r="N168" s="34">
         <v>7.26717367986602</v>
       </c>
       <c r="O168" s="16">
@@ -56545,10 +56545,10 @@
       <c r="L169" s="11">
         <v>0.58415466897591495</v>
       </c>
-      <c r="M169" s="46">
+      <c r="M169" s="34">
         <v>12.8146360532507</v>
       </c>
-      <c r="N169" s="46">
+      <c r="N169" s="34">
         <v>13.6016232566443</v>
       </c>
       <c r="O169" s="16">
@@ -56877,10 +56877,10 @@
       <c r="L170" s="11">
         <v>0.38196069409452998</v>
       </c>
-      <c r="M170" s="46">
+      <c r="M170" s="34">
         <v>2.6373975553981701</v>
       </c>
-      <c r="N170" s="46">
+      <c r="N170" s="34">
         <v>2.7575605489972799</v>
       </c>
       <c r="O170" s="16">
@@ -57209,10 +57209,10 @@
       <c r="L171" s="11">
         <v>2.8686117626917699E-2</v>
       </c>
-      <c r="M171" s="46">
+      <c r="M171" s="34">
         <v>1.4898926363475</v>
       </c>
-      <c r="N171" s="46">
+      <c r="N171" s="34">
         <v>2.05110321499158</v>
       </c>
       <c r="O171" s="16">
@@ -57541,10 +57541,10 @@
       <c r="L172" s="11">
         <v>7.4961845491936699E-2</v>
       </c>
-      <c r="M172" s="46">
+      <c r="M172" s="34">
         <v>0.54035256829148304</v>
       </c>
-      <c r="N172" s="46">
+      <c r="N172" s="34">
         <v>0.58249471911617701</v>
       </c>
       <c r="O172" s="16">
@@ -57873,10 +57873,10 @@
       <c r="L173" s="11">
         <v>7.1293366362541596E-3</v>
       </c>
-      <c r="M173" s="46">
+      <c r="M173" s="34">
         <v>1.9998867245765299</v>
       </c>
-      <c r="N173" s="46">
+      <c r="N173" s="34">
         <v>2.4853346152596498</v>
       </c>
       <c r="O173" s="16">
@@ -58205,10 +58205,10 @@
       <c r="L174" s="11">
         <v>3.52245989850223</v>
       </c>
-      <c r="M174" s="46">
+      <c r="M174" s="34">
         <v>50.792094501843401</v>
       </c>
-      <c r="N174" s="46">
+      <c r="N174" s="34">
         <v>58.838256320664101</v>
       </c>
       <c r="O174" s="16">
@@ -58537,10 +58537,10 @@
       <c r="L175" s="11">
         <v>0.21427346362262101</v>
       </c>
-      <c r="M175" s="46">
+      <c r="M175" s="34">
         <v>0.72147343410777298</v>
       </c>
-      <c r="N175" s="46">
+      <c r="N175" s="34">
         <v>0.76170558347113804</v>
       </c>
       <c r="O175" s="16">
@@ -58869,10 +58869,10 @@
       <c r="L176" s="11">
         <v>1.38249621674621</v>
       </c>
-      <c r="M176" s="46">
+      <c r="M176" s="34">
         <v>12.8601118574287</v>
       </c>
-      <c r="N176" s="46">
+      <c r="N176" s="34">
         <v>17.880596306646002</v>
       </c>
       <c r="O176" s="16">
@@ -59201,10 +59201,10 @@
       <c r="L177" s="11">
         <v>0.34740359390110398</v>
       </c>
-      <c r="M177" s="46">
+      <c r="M177" s="34">
         <v>0.75875360864793395</v>
       </c>
-      <c r="N177" s="46">
+      <c r="N177" s="34">
         <v>0.79708463439961597</v>
       </c>
       <c r="O177" s="16">
@@ -59533,10 +59533,10 @@
       <c r="L178" s="11">
         <v>0.355166187732529</v>
       </c>
-      <c r="M178" s="46">
+      <c r="M178" s="34">
         <v>5.1385543120644401</v>
       </c>
-      <c r="N178" s="46">
+      <c r="N178" s="34">
         <v>11.061084725276899</v>
       </c>
       <c r="O178" s="16">
@@ -59865,10 +59865,10 @@
       <c r="L179" s="11">
         <v>0.16812335006433801</v>
       </c>
-      <c r="M179" s="46">
+      <c r="M179" s="34">
         <v>0.71757131051586898</v>
       </c>
-      <c r="N179" s="46">
+      <c r="N179" s="34">
         <v>0.93147044987740202</v>
       </c>
       <c r="O179" s="16">
@@ -60197,10 +60197,10 @@
       <c r="L180" s="11">
         <v>0.21018550774592501</v>
       </c>
-      <c r="M180" s="46">
+      <c r="M180" s="34">
         <v>1.0979790687053399</v>
       </c>
-      <c r="N180" s="46">
+      <c r="N180" s="34">
         <v>1.33680562517969</v>
       </c>
       <c r="O180" s="16">
@@ -60529,10 +60529,10 @@
       <c r="L181" s="11">
         <v>6.9855276934172095E-2</v>
       </c>
-      <c r="M181" s="46">
+      <c r="M181" s="34">
         <v>2.5543450866220998</v>
       </c>
-      <c r="N181" s="46">
+      <c r="N181" s="34">
         <v>3.3123375047769601</v>
       </c>
       <c r="O181" s="16">
@@ -60861,10 +60861,10 @@
       <c r="L182" s="11">
         <v>0.33703109128084902</v>
       </c>
-      <c r="M182" s="46">
+      <c r="M182" s="34">
         <v>0.23676507208039199</v>
       </c>
-      <c r="N182" s="46">
+      <c r="N182" s="34">
         <v>0.25024202284895097</v>
       </c>
       <c r="O182" s="16">
@@ -61193,10 +61193,10 @@
       <c r="L183" s="11">
         <v>5.3917291064028899E-2</v>
       </c>
-      <c r="M183" s="46">
+      <c r="M183" s="34">
         <v>7.8579688238480994E-2</v>
       </c>
-      <c r="N183" s="46">
+      <c r="N183" s="34">
         <v>8.2502194106478993E-2</v>
       </c>
       <c r="O183" s="16">
@@ -61525,10 +61525,10 @@
       <c r="L184" s="11">
         <v>0.73773169121298399</v>
       </c>
-      <c r="M184" s="46">
+      <c r="M184" s="34">
         <v>0.86546027778410495</v>
       </c>
-      <c r="N184" s="46">
+      <c r="N184" s="34">
         <v>0.95809898088332901</v>
       </c>
       <c r="O184" s="16">
@@ -61857,10 +61857,10 @@
       <c r="L185" s="11">
         <v>1.7121517120398E-2</v>
       </c>
-      <c r="M185" s="46">
+      <c r="M185" s="34">
         <v>7.4938830121392699E-2</v>
       </c>
-      <c r="N185" s="46">
+      <c r="N185" s="34">
         <v>8.1784962408228301E-2</v>
       </c>
       <c r="O185" s="16">
@@ -62189,10 +62189,10 @@
       <c r="L186" s="11">
         <v>1.80870596634321E-2</v>
       </c>
-      <c r="M186" s="46">
+      <c r="M186" s="34">
         <v>1.2379245400738099</v>
       </c>
-      <c r="N186" s="46">
+      <c r="N186" s="34">
         <v>1.4553012510084</v>
       </c>
       <c r="O186" s="16">
@@ -62521,10 +62521,10 @@
       <c r="L187" s="11">
         <v>0.119174074720492</v>
       </c>
-      <c r="M187" s="46">
+      <c r="M187" s="34">
         <v>2.14405781699889</v>
       </c>
-      <c r="N187" s="46">
+      <c r="N187" s="34">
         <v>2.1884365356703501</v>
       </c>
       <c r="O187" s="16">
@@ -62847,10 +62847,10 @@
       <c r="L188" s="11">
         <v>3.9408941025452</v>
       </c>
-      <c r="M188" s="46">
+      <c r="M188" s="34">
         <v>13.979858350778199</v>
       </c>
-      <c r="N188" s="46">
+      <c r="N188" s="34">
         <v>14.2594928822014</v>
       </c>
       <c r="O188" s="16">
@@ -63153,7 +63153,7 @@
         <v>-90</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E189" s="21">
         <v>-258.46768803385902</v>
@@ -63179,10 +63179,10 @@
       <c r="L189" s="22">
         <v>28.103242485964</v>
       </c>
-      <c r="M189" s="47">
+      <c r="M189" s="35">
         <v>2163.0095197690198</v>
       </c>
-      <c r="N189" s="47">
+      <c r="N189" s="35">
         <v>4574.1745654248398</v>
       </c>
       <c r="O189" s="23">
@@ -63483,34 +63483,25 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DE5:DF5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="BK4:DF4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="O5:P5"/>
@@ -63527,25 +63518,34 @@
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DE5:DF5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="BK4:DF4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
